--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2379396.158373903</v>
+        <v>2376871.779151525</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9942888.828305544</v>
+        <v>9942888.82830555</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9257994.255702395</v>
+        <v>9257994.255702399</v>
       </c>
     </row>
     <row r="11">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3.501705603161637</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.554715486137794</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,70 +1209,70 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>6.05642108929943</v>
       </c>
-      <c r="E9" t="n">
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="F9" t="n">
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1288,76 +1288,76 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.7587050448881</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
         <v>359.9009091231189</v>
@@ -1385,7 +1385,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.632627768728</v>
+        <v>191.7549174328576</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1427,16 +1427,16 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
         <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>239.302368605199</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
         <v>120.2716844800353</v>
@@ -1534,19 +1534,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T13" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V13" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W13" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X13" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>259.061236642458</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>247.632627768728</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403095</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
         <v>302.2658320988205</v>
@@ -1673,7 +1673,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.2628020374611</v>
+        <v>236.8621683961341</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
         <v>120.2716844800353</v>
@@ -1771,19 +1771,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G16" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572827</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124427</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145483</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T16" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V16" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W16" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X16" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.7587050448881</v>
+        <v>191.7549174328568</v>
       </c>
       <c r="C17" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E17" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F17" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G17" t="n">
-        <v>77.18791253260817</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H17" t="n">
-        <v>247.632627768728</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V17" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W17" t="n">
         <v>302.2658320988205</v>
@@ -1910,7 +1910,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y17" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C19" t="n">
         <v>120.2716844800353</v>
@@ -2008,19 +2008,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433873</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G19" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572827</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124558</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145483</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S19" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T19" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U19" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V19" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W19" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X19" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C20" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D20" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E20" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
-        <v>14.4451958583493</v>
+        <v>336.6692916846825</v>
       </c>
       <c r="G20" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T20" t="n">
         <v>156.9428335210276</v>
@@ -2138,16 +2138,16 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V20" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X20" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C22" t="n">
         <v>120.2716844800353</v>
@@ -2245,19 +2245,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433873</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G22" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572827</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124558</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145483</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S22" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T22" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U22" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V22" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W22" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X22" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C23" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D23" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E23" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F23" t="n">
         <v>359.9009091231189</v>
@@ -2333,7 +2333,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H23" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,7 +2375,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V23" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W23" t="n">
         <v>302.2658320988205</v>
@@ -2384,7 +2384,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y23" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="24">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C25" t="n">
         <v>120.2716844800353</v>
@@ -2482,19 +2482,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433873</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G25" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572827</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124558</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145483</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S25" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T25" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U25" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V25" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W25" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X25" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>342.7996866088072</v>
       </c>
       <c r="C26" t="n">
-        <v>325.3387367163342</v>
+        <v>325.3387367163341</v>
       </c>
       <c r="D26" t="n">
         <v>314.7488865660096</v>
@@ -2570,10 +2570,10 @@
         <v>370.9875705987801</v>
       </c>
       <c r="H26" t="n">
-        <v>254.6736093326471</v>
+        <v>254.673609332647</v>
       </c>
       <c r="I26" t="n">
-        <v>1.642774718252561</v>
+        <v>1.642774718252525</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>69.25360673350244</v>
+        <v>69.25360673350241</v>
       </c>
       <c r="T26" t="n">
         <v>163.9838150849467</v>
@@ -2621,7 +2621,7 @@
         <v>329.7969456237956</v>
       </c>
       <c r="Y26" t="n">
-        <v>346.3037836013802</v>
+        <v>346.3037836013801</v>
       </c>
     </row>
     <row r="27">
@@ -2716,22 +2716,22 @@
         <v>127.3126660439544</v>
       </c>
       <c r="D28" t="n">
-        <v>108.681317963539</v>
+        <v>108.6813179635389</v>
       </c>
       <c r="E28" t="n">
-        <v>106.4998075918958</v>
+        <v>106.4998075918957</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>105.4868929682578</v>
       </c>
       <c r="G28" t="n">
-        <v>63.71591290352854</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>104.8208598596474</v>
       </c>
       <c r="I28" t="n">
-        <v>56.4182653551647</v>
+        <v>14.64728529043606</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>48.99799761537393</v>
+        <v>48.9979976153739</v>
       </c>
       <c r="S28" t="n">
         <v>149.8348702767685</v>
@@ -2776,7 +2776,7 @@
         <v>246.5888432819176</v>
       </c>
       <c r="X28" t="n">
-        <v>185.7755003343638</v>
+        <v>185.7755003343637</v>
       </c>
       <c r="Y28" t="n">
         <v>178.6504982974214</v>
@@ -2810,7 +2810,7 @@
         <v>254.6736093326471</v>
       </c>
       <c r="I29" t="n">
-        <v>1.642774718252554</v>
+        <v>1.642774718252539</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>69.25360673350244</v>
+        <v>69.25360673350241</v>
       </c>
       <c r="T29" t="n">
         <v>163.9838150849467</v>
@@ -2953,7 +2953,7 @@
         <v>127.3126660439544</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>108.6813179635389</v>
       </c>
       <c r="E31" t="n">
         <v>106.4998075918958</v>
@@ -2968,7 +2968,7 @@
         <v>104.8208598596474</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>56.41826535516468</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>185.7755003343638</v>
       </c>
       <c r="Y31" t="n">
-        <v>175.8874483470415</v>
+        <v>10.78786502833718</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>341.0109877805084</v>
+        <v>341.0109877805086</v>
       </c>
       <c r="C32" t="n">
-        <v>323.5500378880354</v>
+        <v>323.5500378880355</v>
       </c>
       <c r="D32" t="n">
-        <v>312.9601877377108</v>
+        <v>312.960187737711</v>
       </c>
       <c r="E32" t="n">
-        <v>340.2075161892896</v>
+        <v>340.2075161892898</v>
       </c>
       <c r="F32" t="n">
-        <v>365.1531918587393</v>
+        <v>365.1531918587394</v>
       </c>
       <c r="G32" t="n">
-        <v>369.1988717704813</v>
+        <v>369.1988717704814</v>
       </c>
       <c r="H32" t="n">
-        <v>252.8849105043483</v>
+        <v>252.8849105043485</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.46490790520369</v>
+        <v>67.46490790520383</v>
       </c>
       <c r="T32" t="n">
-        <v>162.195116256648</v>
+        <v>162.1951162566481</v>
       </c>
       <c r="U32" t="n">
-        <v>209.2723180759298</v>
+        <v>209.27231807593</v>
       </c>
       <c r="V32" t="n">
-        <v>286.0294045871627</v>
+        <v>286.0294045871629</v>
       </c>
       <c r="W32" t="n">
-        <v>307.5181148344408</v>
+        <v>307.518114834441</v>
       </c>
       <c r="X32" t="n">
-        <v>328.0082467954969</v>
+        <v>328.008246795497</v>
       </c>
       <c r="Y32" t="n">
-        <v>344.5150847730814</v>
+        <v>344.5150847730816</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>138.1091262989652</v>
+        <v>138.1091262989653</v>
       </c>
       <c r="C34" t="n">
-        <v>125.5239672156557</v>
+        <v>125.5239672156558</v>
       </c>
       <c r="D34" t="n">
-        <v>86.38510565545826</v>
+        <v>106.8926191352404</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>104.7111087635972</v>
       </c>
       <c r="F34" t="n">
-        <v>103.6981941399591</v>
+        <v>103.6981941399592</v>
       </c>
       <c r="G34" t="n">
-        <v>124.3029543760561</v>
+        <v>124.3029543760562</v>
       </c>
       <c r="H34" t="n">
-        <v>103.0321610313486</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>54.62956652686595</v>
+        <v>32.443105314832</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>47.20929878707518</v>
+        <v>47.20929878707533</v>
       </c>
       <c r="S34" t="n">
-        <v>148.0461714484697</v>
+        <v>148.0461714484699</v>
       </c>
       <c r="T34" t="n">
-        <v>177.8260953931971</v>
+        <v>177.8260953931972</v>
       </c>
       <c r="U34" t="n">
-        <v>244.4889843226407</v>
+        <v>244.4889843226409</v>
       </c>
       <c r="V34" t="n">
-        <v>210.4147894408559</v>
+        <v>210.414789440856</v>
       </c>
       <c r="W34" t="n">
-        <v>244.8001444536189</v>
+        <v>244.800144453619</v>
       </c>
       <c r="X34" t="n">
-        <v>183.986801506065</v>
+        <v>183.9868015060651</v>
       </c>
       <c r="Y34" t="n">
-        <v>176.8617994691226</v>
+        <v>176.8617994691228</v>
       </c>
     </row>
     <row r="35">
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958336</v>
+        <v>62.21262516958335</v>
       </c>
       <c r="T35" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210277</v>
       </c>
       <c r="U35" t="n">
         <v>204.0200353403095</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633448</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800354</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996199</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797668</v>
+        <v>99.4588260279767</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433876</v>
+        <v>98.44591140433877</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404358</v>
       </c>
       <c r="H37" t="n">
-        <v>97.7798782957283</v>
+        <v>97.77987829572831</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124561</v>
+        <v>49.37728379124562</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145483</v>
+        <v>41.95701605145486</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128494</v>
@@ -3478,7 +3478,7 @@
         <v>172.5738126575767</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V37" t="n">
         <v>205.1625067052355</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C38" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E38" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
         <v>359.9009091231189</v>
@@ -3518,7 +3518,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958336</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403095</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
         <v>302.2658320988205</v>
@@ -3569,7 +3569,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y38" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797668</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433876</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957283</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124561</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145483</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3743,7 @@
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020911</v>
       </c>
       <c r="E41" t="n">
         <v>334.9552334536692</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958325</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433867</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C44" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F44" t="n">
         <v>359.9009091231189</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958325</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4034,7 +4034,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W44" t="n">
         <v>302.2658320988205</v>
@@ -4043,7 +4043,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C46" t="n">
         <v>120.2716844800353</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124479</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.9570160514552</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U46" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X46" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
   </sheetData>
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.9781615245738</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C8" t="n">
-        <v>17.9781615245738</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D8" t="n">
-        <v>17.9781615245738</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E8" t="n">
-        <v>17.9781615245738</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F8" t="n">
-        <v>11.03266077537032</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G8" t="n">
-        <v>4.087160026166852</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H8" t="n">
-        <v>4.087160026166852</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I8" t="n">
-        <v>4.087160026166852</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J8" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M8" t="n">
-        <v>7.082327113962777</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N8" t="n">
         <v>13.8896123982571</v>
@@ -4829,25 +4829,25 @@
         <v>27.50418296684575</v>
       </c>
       <c r="S8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V8" t="n">
-        <v>17.9781615245738</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W8" t="n">
-        <v>17.9781615245738</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X8" t="n">
-        <v>17.9781615245738</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y8" t="n">
-        <v>17.9781615245738</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C9" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D9" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E9" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I9" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="J9" t="n">
-        <v>4.791968026857282</v>
+        <v>4.791968026857793</v>
       </c>
       <c r="K9" t="n">
-        <v>11.5992533111516</v>
+        <v>4.791968026857793</v>
       </c>
       <c r="L9" t="n">
-        <v>11.5992533111516</v>
+        <v>11.59925331115211</v>
       </c>
       <c r="M9" t="n">
-        <v>11.5992533111516</v>
+        <v>18.40653859544644</v>
       </c>
       <c r="N9" t="n">
-        <v>18.40653859544593</v>
+        <v>25.21382387974076</v>
       </c>
       <c r="O9" t="n">
-        <v>18.40653859544593</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P9" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q9" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S9" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T9" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U9" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V9" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W9" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X9" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="Y9" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K10" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="L10" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M10" t="n">
-        <v>13.8896123982571</v>
+        <v>11.23807450154193</v>
       </c>
       <c r="N10" t="n">
-        <v>20.69689768255142</v>
+        <v>18.04535978583625</v>
       </c>
       <c r="O10" t="n">
-        <v>27.50418296684575</v>
+        <v>24.85264507013058</v>
       </c>
       <c r="P10" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R10" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S10" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T10" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="U10" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="V10" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="W10" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X10" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1707.656676566317</v>
+        <v>1640.517726580262</v>
       </c>
       <c r="C11" t="n">
-        <v>1386.143792573979</v>
+        <v>1640.517726580262</v>
       </c>
       <c r="D11" t="n">
-        <v>1386.143792573979</v>
+        <v>1329.701660921585</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923808</v>
+        <v>991.3630412714139</v>
       </c>
       <c r="F11" t="n">
-        <v>684.2689010822733</v>
+        <v>627.8267694298796</v>
       </c>
       <c r="G11" t="n">
-        <v>316.646083875343</v>
+        <v>260.2039522229487</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218343</v>
@@ -5039,10 +5039,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5069,7 +5069,7 @@
         <v>3262.76478608434</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416636</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U11" t="n">
         <v>2898.155827638545</v>
@@ -5078,13 +5078,13 @@
         <v>2614.542573243048</v>
       </c>
       <c r="W11" t="n">
-        <v>2614.542573243048</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X11" t="n">
-        <v>2288.526447930041</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y11" t="n">
-        <v>2046.806883682365</v>
+        <v>1640.517726580262</v>
       </c>
     </row>
     <row r="12">
@@ -5094,70 +5094,70 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052949</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254612</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611986</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268789</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770419</v>
+        <v>335.4089181770412</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998341</v>
+        <v>215.1557144998335</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657646</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218343</v>
@@ -5200,7 +5200,7 @@
         <v>158.1401341315255</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328084</v>
+        <v>408.6327023328082</v>
       </c>
       <c r="L13" t="n">
         <v>771.697886033711</v>
@@ -5218,10 +5218,10 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S13" t="n">
         <v>2112.720554588247</v>
@@ -5236,13 +5236,13 @@
         <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874613</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1647.821809384542</v>
+        <v>1404.8025029403</v>
       </c>
       <c r="C14" t="n">
-        <v>1647.821809384542</v>
+        <v>1083.289618947962</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.143792573979</v>
+        <v>772.4735532892846</v>
       </c>
       <c r="E14" t="n">
-        <v>1047.805172923808</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822731</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G14" t="n">
-        <v>316.646083875343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
-        <v>3167.077706941467</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U14" t="n">
-        <v>2960.996863163376</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>2960.996863163376</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W14" t="n">
-        <v>2655.677840841336</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X14" t="n">
-        <v>2329.661715528329</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y14" t="n">
-        <v>1986.97201650059</v>
+        <v>1743.952710056349</v>
       </c>
     </row>
     <row r="15">
@@ -5346,13 +5346,13 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228006</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052934</v>
+        <v>759.4662498052951</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254598</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611973</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268774</v>
+        <v>434.8492327268786</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770403</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998324</v>
+        <v>215.1557144998338</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657635</v>
+        <v>116.3881606657649</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L16" t="n">
         <v>771.6978860337115</v>
@@ -5449,37 +5449,37 @@
         <v>1550.274078843938</v>
       </c>
       <c r="O16" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016759</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q16" t="n">
         <v>2299.337630107746</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V16" t="n">
-        <v>1489.515482921748</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874599</v>
+        <v>893.6650816874615</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1728.817513434839</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="C17" t="n">
-        <v>1407.304629442501</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D17" t="n">
-        <v>1096.488563783824</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E17" t="n">
-        <v>758.1499441336532</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F17" t="n">
-        <v>394.6136722921189</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G17" t="n">
-        <v>316.646083875343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V17" t="n">
-        <v>3041.992567213674</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W17" t="n">
-        <v>2736.673544891633</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X17" t="n">
-        <v>2410.657419578626</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y17" t="n">
-        <v>2067.967720550888</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="18">
@@ -5583,16 +5583,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031477</v>
@@ -5647,67 +5647,67 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.4662498052948</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9796998254611</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611986</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E19" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4089181770416</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G19" t="n">
-        <v>215.1557144998338</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H19" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657644</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L19" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M19" t="n">
         <v>1162.360316885667</v>
       </c>
       <c r="N19" t="n">
-        <v>1550.274078843939</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O19" t="n">
-        <v>1896.109063016759</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P19" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q19" t="n">
         <v>2299.337630107746</v>
       </c>
       <c r="R19" t="n">
-        <v>2256.956805813348</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.720554588248</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T19" t="n">
-        <v>1938.403572105847</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U19" t="n">
         <v>1696.750338179563</v>
       </c>
       <c r="V19" t="n">
-        <v>1489.51548292175</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W19" t="n">
         <v>1247.547945832862</v>
@@ -5716,7 +5716,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.6650816874612</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1669.527577311085</v>
+        <v>1627.383644777219</v>
       </c>
       <c r="C20" t="n">
-        <v>1348.014693318746</v>
+        <v>1305.870760784881</v>
       </c>
       <c r="D20" t="n">
-        <v>1037.198627660069</v>
+        <v>995.0546951262036</v>
       </c>
       <c r="E20" t="n">
-        <v>698.8600080098986</v>
+        <v>656.7160754760325</v>
       </c>
       <c r="F20" t="n">
-        <v>684.2689010822734</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G20" t="n">
-        <v>316.646083875343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912089</v>
@@ -5756,46 +5756,46 @@
         <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T20" t="n">
-        <v>3167.077706941467</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U20" t="n">
-        <v>2960.996863163376</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V20" t="n">
-        <v>2677.383608767879</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W20" t="n">
-        <v>2677.383608767879</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X20" t="n">
-        <v>2351.367483454872</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="Y20" t="n">
-        <v>2008.677784427133</v>
+        <v>1966.533851893268</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,67 +5884,67 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052948</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9796998254611</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611986</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E22" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F22" t="n">
-        <v>335.4089181770416</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G22" t="n">
-        <v>215.1557144998338</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H22" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6327023328096</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L22" t="n">
-        <v>771.6978860337124</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M22" t="n">
-        <v>1162.360316885668</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N22" t="n">
-        <v>1550.274078843939</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O22" t="n">
-        <v>1896.109063016759</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P22" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q22" t="n">
         <v>2299.337630107746</v>
       </c>
       <c r="R22" t="n">
-        <v>2256.956805813348</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.720554588248</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T22" t="n">
-        <v>1938.403572105847</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U22" t="n">
         <v>1696.750338179563</v>
       </c>
       <c r="V22" t="n">
-        <v>1489.51548292175</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W22" t="n">
         <v>1247.547945832862</v>
@@ -5953,7 +5953,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y22" t="n">
-        <v>893.6650816874612</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C23" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D23" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E23" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G23" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H23" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I23" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J23" t="n">
-        <v>289.2351327209259</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K23" t="n">
-        <v>943.9584648562254</v>
+        <v>727.1188267890166</v>
       </c>
       <c r="L23" t="n">
-        <v>1394.992678104634</v>
+        <v>1178.153040037425</v>
       </c>
       <c r="M23" t="n">
-        <v>1928.524582776559</v>
+        <v>1711.68494470935</v>
       </c>
       <c r="N23" t="n">
-        <v>2475.303399835341</v>
+        <v>2258.463761768132</v>
       </c>
       <c r="O23" t="n">
-        <v>3355.268050164796</v>
+        <v>2761.436232647469</v>
       </c>
       <c r="P23" t="n">
-        <v>3750.042416521974</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q23" t="n">
-        <v>3998.328778277657</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R23" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S23" t="n">
         <v>3994.504809309627</v>
       </c>
       <c r="T23" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U23" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V23" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W23" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X23" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y23" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6063,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I24" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J24" t="n">
         <v>174.8241863873066</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C25" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D25" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F25" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G25" t="n">
         <v>229.7905149643395</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I25" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J25" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K25" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L25" t="n">
-        <v>786.332686498218</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M25" t="n">
-        <v>1176.995117350174</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N25" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O25" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P25" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q25" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R25" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S25" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T25" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U25" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V25" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W25" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X25" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.2998821519669</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="26">
@@ -6203,52 +6203,52 @@
         <v>2079.505420603326</v>
       </c>
       <c r="C26" t="n">
-        <v>1750.880434021171</v>
+        <v>1750.88043402117</v>
       </c>
       <c r="D26" t="n">
-        <v>1432.952265772676</v>
+        <v>1432.952265772675</v>
       </c>
       <c r="E26" t="n">
-        <v>1087.501543532688</v>
+        <v>1087.501543532687</v>
       </c>
       <c r="F26" t="n">
-        <v>716.8531691013362</v>
+        <v>716.8531691013357</v>
       </c>
       <c r="G26" t="n">
-        <v>342.118249304589</v>
+        <v>342.1182493045881</v>
       </c>
       <c r="H26" t="n">
-        <v>84.8721792716118</v>
+        <v>84.87217927161173</v>
       </c>
       <c r="I26" t="n">
-        <v>83.21281086933648</v>
+        <v>83.21281086933645</v>
       </c>
       <c r="J26" t="n">
         <v>272.0919418283619</v>
       </c>
       <c r="K26" t="n">
-        <v>605.9113155182084</v>
+        <v>605.9113155182083</v>
       </c>
       <c r="L26" t="n">
         <v>1056.945528766617</v>
       </c>
       <c r="M26" t="n">
-        <v>1975.838005691178</v>
+        <v>2035.495831596446</v>
       </c>
       <c r="N26" t="n">
-        <v>2955.590277917825</v>
+        <v>2955.590277917823</v>
       </c>
       <c r="O26" t="n">
-        <v>3458.562748797161</v>
+        <v>3458.56274879716</v>
       </c>
       <c r="P26" t="n">
-        <v>3853.33711515434</v>
+        <v>3853.337115154338</v>
       </c>
       <c r="Q26" t="n">
-        <v>4101.623476910022</v>
+        <v>4101.62347691002</v>
       </c>
       <c r="R26" t="n">
-        <v>4160.640543466824</v>
+        <v>4160.640543466822</v>
       </c>
       <c r="S26" t="n">
         <v>4090.687405352174</v>
@@ -6257,19 +6257,19 @@
         <v>3925.047188094652</v>
       </c>
       <c r="U26" t="n">
-        <v>3711.854241726745</v>
+        <v>3711.854241726744</v>
       </c>
       <c r="V26" t="n">
-        <v>3421.12888474143</v>
+        <v>3421.128884741429</v>
       </c>
       <c r="W26" t="n">
-        <v>3108.697759829572</v>
+        <v>3108.697759829571</v>
       </c>
       <c r="X26" t="n">
-        <v>2775.569531926748</v>
+        <v>2775.569531926747</v>
       </c>
       <c r="Y26" t="n">
-        <v>2425.767730309192</v>
+        <v>2425.767730309191</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>958.2445489182618</v>
+        <v>958.2445489182616</v>
       </c>
       <c r="C27" t="n">
-        <v>783.7915196371348</v>
+        <v>783.7915196371346</v>
       </c>
       <c r="D27" t="n">
-        <v>634.8571099758835</v>
+        <v>634.8571099758833</v>
       </c>
       <c r="E27" t="n">
-        <v>475.619654970428</v>
+        <v>475.6196549704279</v>
       </c>
       <c r="F27" t="n">
         <v>329.0850969973129</v>
@@ -6300,16 +6300,16 @@
         <v>102.2201024677985</v>
       </c>
       <c r="I27" t="n">
-        <v>83.21281086933648</v>
+        <v>83.21281086933645</v>
       </c>
       <c r="J27" t="n">
-        <v>176.8900803599539</v>
+        <v>176.8900803599538</v>
       </c>
       <c r="K27" t="n">
-        <v>415.154279340301</v>
+        <v>415.1542793403009</v>
       </c>
       <c r="L27" t="n">
-        <v>781.8524396529664</v>
+        <v>781.8524396529663</v>
       </c>
       <c r="M27" t="n">
         <v>1229.128764875282</v>
@@ -6336,7 +6336,7 @@
         <v>2259.528996734345</v>
       </c>
       <c r="U27" t="n">
-        <v>2031.461149868761</v>
+        <v>2031.46114986876</v>
       </c>
       <c r="V27" t="n">
         <v>1796.309041637018</v>
@@ -6345,7 +6345,7 @@
         <v>1542.071684908816</v>
       </c>
       <c r="X27" t="n">
-        <v>1334.220184703284</v>
+        <v>1334.220184703283</v>
       </c>
       <c r="Y27" t="n">
         <v>1126.45988593833</v>
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>656.3934469478515</v>
+        <v>656.3934469478518</v>
       </c>
       <c r="C28" t="n">
-        <v>527.7947943782005</v>
+        <v>527.7947943782008</v>
       </c>
       <c r="D28" t="n">
-        <v>418.0156853241207</v>
+        <v>418.015685324121</v>
       </c>
       <c r="E28" t="n">
-        <v>310.4401220999836</v>
+        <v>310.4401220999839</v>
       </c>
       <c r="F28" t="n">
-        <v>310.4401220999836</v>
+        <v>203.8877049603298</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0806141166214</v>
+        <v>203.8877049603298</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2009576927352</v>
+        <v>98.00804853644358</v>
       </c>
       <c r="I28" t="n">
-        <v>83.21281086933648</v>
+        <v>83.21281086933645</v>
       </c>
       <c r="J28" t="n">
         <v>167.8702568203987</v>
       </c>
       <c r="K28" t="n">
-        <v>411.3922532734018</v>
+        <v>411.3922532734017</v>
       </c>
       <c r="L28" t="n">
-        <v>767.4868652260245</v>
+        <v>767.4868652260244</v>
       </c>
       <c r="M28" t="n">
-        <v>1151.178724329701</v>
+        <v>1151.1787243297</v>
       </c>
       <c r="N28" t="n">
-        <v>1532.121914539692</v>
+        <v>1532.121914539691</v>
       </c>
       <c r="O28" t="n">
-        <v>1870.986326964232</v>
+        <v>1870.986326964231</v>
       </c>
       <c r="P28" t="n">
-        <v>2143.128640902018</v>
+        <v>2143.128640902017</v>
       </c>
       <c r="Q28" t="n">
         <v>2260.273750558659</v>
@@ -6424,10 +6424,10 @@
         <v>1165.811450744871</v>
       </c>
       <c r="X28" t="n">
-        <v>978.1594302051094</v>
+        <v>978.1594302051096</v>
       </c>
       <c r="Y28" t="n">
-        <v>797.7043814198353</v>
+        <v>797.7043814198355</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2079.505420603326</v>
+        <v>2079.505420603327</v>
       </c>
       <c r="C29" t="n">
         <v>1750.880434021171</v>
       </c>
       <c r="D29" t="n">
-        <v>1432.952265772676</v>
+        <v>1432.952265772677</v>
       </c>
       <c r="E29" t="n">
-        <v>1087.501543532688</v>
+        <v>1087.501543532689</v>
       </c>
       <c r="F29" t="n">
-        <v>716.8531691013363</v>
+        <v>716.8531691013366</v>
       </c>
       <c r="G29" t="n">
-        <v>342.1182493045886</v>
+        <v>342.118249304589</v>
       </c>
       <c r="H29" t="n">
-        <v>84.87217927161177</v>
+        <v>84.87217927161176</v>
       </c>
       <c r="I29" t="n">
         <v>83.21281086933647</v>
@@ -6464,22 +6464,22 @@
         <v>272.0919418283619</v>
       </c>
       <c r="K29" t="n">
-        <v>926.8152739636614</v>
+        <v>605.9113155182083</v>
       </c>
       <c r="L29" t="n">
-        <v>1377.84948721207</v>
+        <v>1470.430131171563</v>
       </c>
       <c r="M29" t="n">
-        <v>1911.381391883995</v>
+        <v>2408.811460859041</v>
       </c>
       <c r="N29" t="n">
-        <v>2458.160208942777</v>
+        <v>2955.590277917824</v>
       </c>
       <c r="O29" t="n">
-        <v>2961.132679822114</v>
+        <v>3458.562748797161</v>
       </c>
       <c r="P29" t="n">
-        <v>3643.145274401033</v>
+        <v>3853.337115154339</v>
       </c>
       <c r="Q29" t="n">
         <v>4101.623476910021</v>
@@ -6497,16 +6497,16 @@
         <v>3711.854241726745</v>
       </c>
       <c r="V29" t="n">
-        <v>3421.12888474143</v>
+        <v>3421.128884741431</v>
       </c>
       <c r="W29" t="n">
-        <v>3108.697759829572</v>
+        <v>3108.697759829573</v>
       </c>
       <c r="X29" t="n">
-        <v>2775.569531926748</v>
+        <v>2775.569531926749</v>
       </c>
       <c r="Y29" t="n">
-        <v>2425.767730309192</v>
+        <v>2425.767730309193</v>
       </c>
     </row>
     <row r="30">
@@ -6540,13 +6540,13 @@
         <v>83.21281086933647</v>
       </c>
       <c r="J30" t="n">
-        <v>176.8900803599538</v>
+        <v>176.8900803599539</v>
       </c>
       <c r="K30" t="n">
-        <v>415.1542793403009</v>
+        <v>415.154279340301</v>
       </c>
       <c r="L30" t="n">
-        <v>781.8524396529663</v>
+        <v>781.8524396529664</v>
       </c>
       <c r="M30" t="n">
         <v>1229.128764875282</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.1844064936904</v>
+        <v>825.9516623711687</v>
       </c>
       <c r="C31" t="n">
-        <v>530.5857539240393</v>
+        <v>697.3530098015178</v>
       </c>
       <c r="D31" t="n">
-        <v>530.5857539240393</v>
+        <v>587.5739007474381</v>
       </c>
       <c r="E31" t="n">
-        <v>423.0101906999022</v>
+        <v>479.9983375233009</v>
       </c>
       <c r="F31" t="n">
-        <v>316.4577735602478</v>
+        <v>373.4459203836465</v>
       </c>
       <c r="G31" t="n">
-        <v>189.0924672932227</v>
+        <v>246.0806141166215</v>
       </c>
       <c r="H31" t="n">
-        <v>83.21281086933647</v>
+        <v>140.2009576927351</v>
       </c>
       <c r="I31" t="n">
         <v>83.21281086933647</v>
@@ -6622,10 +6622,10 @@
         <v>167.8702568203987</v>
       </c>
       <c r="K31" t="n">
-        <v>411.3922532734016</v>
+        <v>411.3922532734017</v>
       </c>
       <c r="L31" t="n">
-        <v>767.4868652260244</v>
+        <v>767.4868652260245</v>
       </c>
       <c r="M31" t="n">
         <v>1151.1787243297</v>
@@ -6637,13 +6637,13 @@
         <v>1870.986326964231</v>
       </c>
       <c r="P31" t="n">
-        <v>2143.128640902017</v>
+        <v>2143.128640902018</v>
       </c>
       <c r="Q31" t="n">
-        <v>2260.273750558658</v>
+        <v>2260.273750558659</v>
       </c>
       <c r="R31" t="n">
-        <v>2210.780823674442</v>
+        <v>2210.780823674443</v>
       </c>
       <c r="S31" t="n">
         <v>2059.432469859525</v>
@@ -6661,10 +6661,10 @@
         <v>1165.811450744871</v>
       </c>
       <c r="X31" t="n">
-        <v>978.15943020511</v>
+        <v>978.1594302051092</v>
       </c>
       <c r="Y31" t="n">
-        <v>800.4953409656741</v>
+        <v>967.2625968431524</v>
       </c>
     </row>
     <row r="32">
@@ -6680,16 +6680,16 @@
         <v>1739.637149493404</v>
       </c>
       <c r="D32" t="n">
-        <v>1423.515747738141</v>
+        <v>1423.51574773814</v>
       </c>
       <c r="E32" t="n">
-        <v>1079.871791991384</v>
+        <v>1079.871791991383</v>
       </c>
       <c r="F32" t="n">
-        <v>711.030184053263</v>
+        <v>711.0301840532625</v>
       </c>
       <c r="G32" t="n">
-        <v>338.1020307497454</v>
+        <v>338.1020307497455</v>
       </c>
       <c r="H32" t="n">
         <v>82.66272720999956</v>
@@ -6698,34 +6698,34 @@
         <v>82.66272720999956</v>
       </c>
       <c r="J32" t="n">
-        <v>438.947507189378</v>
+        <v>271.541858169025</v>
       </c>
       <c r="K32" t="n">
-        <v>802.9093424545363</v>
+        <v>605.3612318588714</v>
       </c>
       <c r="L32" t="n">
-        <v>1253.943555702945</v>
+        <v>1056.39544510728</v>
       </c>
       <c r="M32" t="n">
-        <v>1787.47546037487</v>
+        <v>2034.945747937109</v>
       </c>
       <c r="N32" t="n">
-        <v>2334.254277433652</v>
+        <v>2581.724564995891</v>
       </c>
       <c r="O32" t="n">
-        <v>2837.226748312989</v>
+        <v>3084.697035875228</v>
       </c>
       <c r="P32" t="n">
-        <v>3550.581835759935</v>
+        <v>3798.052123322174</v>
       </c>
       <c r="Q32" t="n">
-        <v>4009.060038268923</v>
+        <v>4046.338485077857</v>
       </c>
       <c r="R32" t="n">
         <v>4133.136360499978</v>
       </c>
       <c r="S32" t="n">
-        <v>4064.989988878559</v>
+        <v>4064.98998887856</v>
       </c>
       <c r="T32" t="n">
         <v>3901.156538114269</v>
@@ -6734,10 +6734,10 @@
         <v>3689.770358239592</v>
       </c>
       <c r="V32" t="n">
-        <v>3400.851767747508</v>
+        <v>3400.851767747509</v>
       </c>
       <c r="W32" t="n">
-        <v>3090.227409328881</v>
+        <v>3090.227409328882</v>
       </c>
       <c r="X32" t="n">
         <v>2758.905947919288</v>
@@ -6783,7 +6783,7 @@
         <v>414.604195680964</v>
       </c>
       <c r="L33" t="n">
-        <v>781.3023559936294</v>
+        <v>781.3023559936295</v>
       </c>
       <c r="M33" t="n">
         <v>1228.578681215945</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>686.2707564477205</v>
+        <v>686.2707564477183</v>
       </c>
       <c r="C34" t="n">
-        <v>559.4788703713006</v>
+        <v>559.4788703712983</v>
       </c>
       <c r="D34" t="n">
-        <v>472.2211878910397</v>
+        <v>451.5065278104495</v>
       </c>
       <c r="E34" t="n">
-        <v>472.2211878910397</v>
+        <v>345.7377310795433</v>
       </c>
       <c r="F34" t="n">
-        <v>367.4755372446164</v>
+        <v>240.9920804331198</v>
       </c>
       <c r="G34" t="n">
-        <v>241.9169974708224</v>
+        <v>115.4335406593248</v>
       </c>
       <c r="H34" t="n">
-        <v>137.8441075401672</v>
+        <v>115.4335406593248</v>
       </c>
       <c r="I34" t="n">
         <v>82.66272720999956</v>
       </c>
       <c r="J34" t="n">
-        <v>169.0909850010776</v>
+        <v>169.0909850010774</v>
       </c>
       <c r="K34" t="n">
-        <v>414.3837932940963</v>
+        <v>414.3837932940961</v>
       </c>
       <c r="L34" t="n">
-        <v>772.2492170867349</v>
+        <v>772.2492170867345</v>
       </c>
       <c r="M34" t="n">
         <v>1157.711888030426</v>
@@ -6871,37 +6871,37 @@
         <v>1540.425890080433</v>
       </c>
       <c r="O34" t="n">
-        <v>1881.061114344989</v>
+        <v>1881.061114344988</v>
       </c>
       <c r="P34" t="n">
-        <v>2154.974240122791</v>
+        <v>2154.97424012279</v>
       </c>
       <c r="Q34" t="n">
-        <v>2273.890161619448</v>
+        <v>2273.890161619447</v>
       </c>
       <c r="R34" t="n">
-        <v>2226.204001228463</v>
+        <v>2226.204001228462</v>
       </c>
       <c r="S34" t="n">
-        <v>2076.662413906777</v>
+        <v>2076.662413906775</v>
       </c>
       <c r="T34" t="n">
-        <v>1897.040095327789</v>
+        <v>1897.040095327788</v>
       </c>
       <c r="U34" t="n">
-        <v>1650.08152530492</v>
+        <v>1650.081525304918</v>
       </c>
       <c r="V34" t="n">
-        <v>1437.54133395052</v>
+        <v>1437.541333950518</v>
       </c>
       <c r="W34" t="n">
-        <v>1190.268460765047</v>
+        <v>1190.268460765045</v>
       </c>
       <c r="X34" t="n">
-        <v>1004.423206718516</v>
+        <v>1004.423206718514</v>
       </c>
       <c r="Y34" t="n">
-        <v>825.7749244264731</v>
+        <v>825.7749244264712</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C35" t="n">
         <v>1711.594658697162</v>
@@ -6926,7 +6926,7 @@
         <v>698.9037015467793</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398488</v>
       </c>
       <c r="H35" t="n">
         <v>81.14691689668918</v>
@@ -6944,19 +6944,19 @@
         <v>1054.87963479397</v>
       </c>
       <c r="M35" t="n">
-        <v>1588.411539465894</v>
+        <v>1776.744200383603</v>
       </c>
       <c r="N35" t="n">
-        <v>2135.190356524677</v>
+        <v>2323.523017442385</v>
       </c>
       <c r="O35" t="n">
-        <v>2761.436232647469</v>
+        <v>2826.495488321722</v>
       </c>
       <c r="P35" t="n">
-        <v>3474.791320094415</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277657</v>
       </c>
       <c r="R35" t="n">
         <v>4057.345844834459</v>
@@ -6968,7 +6968,7 @@
         <v>3835.976694641923</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863833</v>
       </c>
       <c r="V35" t="n">
         <v>3346.282596468335</v>
@@ -7078,10 +7078,10 @@
         <v>549.9474938257044</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913846</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415474</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G37" t="n">
         <v>229.7905149643396</v>
@@ -7099,16 +7099,16 @@
         <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
-        <v>786.332686498218</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350174</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N37" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O37" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P37" t="n">
         <v>2189.856749167331</v>
@@ -7154,13 +7154,13 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F38" t="n">
-        <v>698.903701546779</v>
+        <v>698.90370154678</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
@@ -7172,28 +7172,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K38" t="n">
-        <v>1045.699547878784</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L38" t="n">
-        <v>1496.733761127193</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M38" t="n">
-        <v>2030.265665799118</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N38" t="n">
-        <v>2577.0444828579</v>
+        <v>2548.674958929623</v>
       </c>
       <c r="O38" t="n">
-        <v>3080.016953737237</v>
+        <v>3051.64742980896</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277657</v>
       </c>
       <c r="R38" t="n">
         <v>4057.345844834459</v>
@@ -7202,7 +7202,7 @@
         <v>3994.504809309627</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U38" t="n">
         <v>3629.895850863832</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899669</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257044</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E40" t="n">
         <v>449.4840331913845</v>
@@ -7324,7 +7324,7 @@
         <v>229.7905149643396</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I40" t="n">
         <v>81.14691689668918</v>
@@ -7336,46 +7336,46 @@
         <v>423.2675027973143</v>
       </c>
       <c r="L40" t="n">
-        <v>786.332686498218</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350174</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N40" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O40" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570353</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V40" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X40" t="n">
         <v>1081.642828347424</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519672</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
@@ -7409,28 +7409,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J41" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K41" t="n">
-        <v>771.2510705659141</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L41" t="n">
-        <v>1222.285283814323</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M41" t="n">
-        <v>1755.817188486248</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N41" t="n">
-        <v>2302.59600554503</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O41" t="n">
-        <v>2971.628073400775</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P41" t="n">
-        <v>3684.983160847721</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277657</v>
       </c>
       <c r="R41" t="n">
         <v>4057.345844834459</v>
@@ -7439,7 +7439,7 @@
         <v>3994.504809309627</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U41" t="n">
         <v>3629.895850863832</v>
@@ -7451,7 +7451,7 @@
         <v>3040.963574146294</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y41" t="n">
         <v>2372.257749805549</v>
@@ -7488,13 +7488,13 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L42" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D43" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
@@ -7573,7 +7573,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M43" t="n">
         <v>1176.995117350173</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J44" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L44" t="n">
-        <v>1222.285283814323</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M44" t="n">
-        <v>1755.817188486248</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N44" t="n">
-        <v>2302.59600554503</v>
+        <v>2548.674958929623</v>
       </c>
       <c r="O44" t="n">
-        <v>2805.568476424367</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P44" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277657</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S44" t="n">
         <v>3994.504809309627</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863833</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J45" t="n">
         <v>174.8241863873065</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697997</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899664</v>
+        <v>652.614500289966</v>
       </c>
       <c r="D46" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257035</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913837</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415465</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643387</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302698</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350173</v>
@@ -7819,13 +7819,13 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O46" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R46" t="n">
         <v>2271.591606277852</v>
@@ -7840,7 +7840,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V46" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W46" t="n">
         <v>1262.182746297367</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
   </sheetData>
@@ -8453,25 +8453,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>207.4291128117386</v>
+        <v>214.0273385234806</v>
       </c>
       <c r="L8" t="n">
-        <v>220.0596496525942</v>
+        <v>220.0596496525926</v>
       </c>
       <c r="M8" t="n">
-        <v>219.4676561537385</v>
+        <v>219.7454761837049</v>
       </c>
       <c r="N8" t="n">
-        <v>218.5295136125243</v>
+        <v>211.653467870811</v>
       </c>
       <c r="O8" t="n">
-        <v>220.20437452239</v>
+        <v>220.2043745223882</v>
       </c>
       <c r="P8" t="n">
-        <v>223.7963346478277</v>
+        <v>223.7963346478262</v>
       </c>
       <c r="Q8" t="n">
-        <v>211.5574430980376</v>
+        <v>211.5574430980365</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>136.1181523135791</v>
+        <v>129.2421065718668</v>
       </c>
       <c r="L9" t="n">
-        <v>126.9915161411928</v>
+        <v>133.8675618829031</v>
       </c>
       <c r="M9" t="n">
-        <v>128.640717440721</v>
+        <v>135.5167631824311</v>
       </c>
       <c r="N9" t="n">
-        <v>124.3673134071038</v>
+        <v>124.3673134071024</v>
       </c>
       <c r="O9" t="n">
-        <v>129.9257937059827</v>
+        <v>132.2392877333602</v>
       </c>
       <c r="P9" t="n">
-        <v>126.1187476774249</v>
+        <v>123.8052536500446</v>
       </c>
       <c r="Q9" t="n">
-        <v>140.0600098420713</v>
+        <v>133.1839641003591</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8452212068442</v>
+        <v>135.1230412368117</v>
       </c>
       <c r="M10" t="n">
-        <v>138.8033259718549</v>
+        <v>135.847184834093</v>
       </c>
       <c r="N10" t="n">
-        <v>127.7294952654594</v>
+        <v>127.7294952654587</v>
       </c>
       <c r="O10" t="n">
-        <v>139.0220387084825</v>
+        <v>139.0220387084818</v>
       </c>
       <c r="P10" t="n">
-        <v>132.3282422062485</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>19.40311602546595</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>124.5185911550055</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9650,16 +9650,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,10 +9881,10 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>389.2531032854909</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>377.0864942046409</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10112,13 +10112,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>408.938813147024</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,10 +10127,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>290.139624466405</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,16 +10346,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>30.44693088415329</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10367,10 +10367,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>28.06142309628153</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,13 +10592,13 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>190.2350110279887</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>124.5185911550058</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>277.2206841544144</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>306.6874953089256</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11069,19 +11069,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>400.2032972882115</v>
       </c>
       <c r="O41" t="n">
-        <v>167.7369666428365</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>306.6874953089256</v>
       </c>
       <c r="P44" t="n">
-        <v>277.220684154414</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>8.327160602107972</v>
+        <v>8.327160602107963</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020905</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>55.87771033587032</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>99.96043343226206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>48.64666835963247</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.2126251695833</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515424</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>102.4006336413269</v>
       </c>
     </row>
     <row r="15">
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23729,10 +23729,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>144.0037876120313</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23744,10 +23744,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>286.7586765022528</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.2126251695833</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>204.0200353403095</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23978,10 +23978,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>345.4557132647697</v>
+        <v>23.23161743843631</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958332</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24029,10 +24029,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>105.4868929682578</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>62.37574030082629</v>
+        <v>126.0916532043548</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>41.7709800647286</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>108.681317963539</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>56.4182653551647</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.763049950379908</v>
+        <v>167.8626332690842</v>
       </c>
     </row>
     <row r="32">
@@ -25078,10 +25078,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>20.50751347978195</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>104.711108763597</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>103.0321610313488</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>22.18646121203408</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-6.679101716144942e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>7.744915819785092e-13</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>-2.862155085169411e-13</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>857072.3532843313</v>
+        <v>857072.3532843308</v>
       </c>
     </row>
     <row r="5">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>809985.5836344886</v>
+        <v>809985.5836344885</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>810145.1601522089</v>
+        <v>810145.1601522088</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>810760.6498355565</v>
+        <v>810760.6498355566</v>
       </c>
     </row>
     <row r="16">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>655421.0709736306</v>
+        <v>655421.0709736304</v>
       </c>
       <c r="C2" t="n">
-        <v>655421.0709736304</v>
+        <v>655421.0709736305</v>
       </c>
       <c r="D2" t="n">
-        <v>656303.1423042843</v>
+        <v>656303.1423042844</v>
       </c>
       <c r="E2" t="n">
-        <v>611624.8079118741</v>
+        <v>611624.8079118743</v>
       </c>
       <c r="F2" t="n">
         <v>611624.8079118743</v>
@@ -26329,31 +26329,31 @@
         <v>611624.807911874</v>
       </c>
       <c r="H2" t="n">
-        <v>611624.8079118745</v>
+        <v>611624.8079118746</v>
       </c>
       <c r="I2" t="n">
+        <v>656833.415891427</v>
+      </c>
+      <c r="J2" t="n">
+        <v>653610.45333266</v>
+      </c>
+      <c r="K2" t="n">
+        <v>653610.4533326601</v>
+      </c>
+      <c r="L2" t="n">
+        <v>654429.2183443536</v>
+      </c>
+      <c r="M2" t="n">
         <v>656833.4158914271</v>
       </c>
-      <c r="J2" t="n">
-        <v>653610.4533326603</v>
-      </c>
-      <c r="K2" t="n">
-        <v>653610.4533326603</v>
-      </c>
-      <c r="L2" t="n">
-        <v>654429.2183443535</v>
-      </c>
-      <c r="M2" t="n">
-        <v>656833.415891427</v>
-      </c>
       <c r="N2" t="n">
-        <v>656833.4158914271</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="O2" t="n">
         <v>656833.4158914265</v>
       </c>
       <c r="P2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914265</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23339.32836583726</v>
+        <v>23339.32836583944</v>
       </c>
       <c r="E3" t="n">
-        <v>1139404.171792179</v>
+        <v>1139404.171792177</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>48646.25967902292</v>
       </c>
       <c r="J3" t="n">
-        <v>38703.93357598034</v>
+        <v>38703.93357598032</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1430.959062639005</v>
+        <v>1430.95906263888</v>
       </c>
       <c r="M3" t="n">
-        <v>204955.0314610743</v>
+        <v>204955.0314610744</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>31947.32404373878</v>
+        <v>31947.32404373875</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,22 +26421,22 @@
         <v>425523.1391661036</v>
       </c>
       <c r="D4" t="n">
-        <v>419092.9909151987</v>
+        <v>419092.990915198</v>
       </c>
       <c r="E4" t="n">
+        <v>56995.66948357392</v>
+      </c>
+      <c r="F4" t="n">
+        <v>56995.66948357392</v>
+      </c>
+      <c r="G4" t="n">
         <v>56995.66948357389</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>56995.66948357389</v>
       </c>
-      <c r="G4" t="n">
-        <v>56995.6694835739</v>
-      </c>
-      <c r="H4" t="n">
-        <v>56995.66948357391</v>
-      </c>
       <c r="I4" t="n">
-        <v>78703.96570883349</v>
+        <v>78703.96570883345</v>
       </c>
       <c r="J4" t="n">
         <v>74898.39959446472</v>
@@ -26445,19 +26445,19 @@
         <v>74898.39959446472</v>
       </c>
       <c r="L4" t="n">
-        <v>75883.37400635571</v>
+        <v>75883.37400635557</v>
       </c>
       <c r="M4" t="n">
-        <v>78703.96570883342</v>
+        <v>78703.96570883344</v>
       </c>
       <c r="N4" t="n">
-        <v>78703.96570883342</v>
+        <v>78703.96570883348</v>
       </c>
       <c r="O4" t="n">
         <v>78703.96570883349</v>
       </c>
       <c r="P4" t="n">
-        <v>78703.96570883348</v>
+        <v>78703.96570883346</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34585.39624034795</v>
+        <v>34585.396240348</v>
       </c>
       <c r="E5" t="n">
         <v>78255.49332178176</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="G5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="H5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="I5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="J5" t="n">
-        <v>90356.09281492096</v>
+        <v>90356.09281492094</v>
       </c>
       <c r="K5" t="n">
         <v>90356.09281492095</v>
       </c>
       <c r="L5" t="n">
-        <v>90088.40335562115</v>
+        <v>90088.40335562114</v>
       </c>
       <c r="M5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="O5" t="n">
         <v>89377.94167480613</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>196270.3318075271</v>
+        <v>196265.9182296588</v>
       </c>
       <c r="C6" t="n">
-        <v>196270.3318075268</v>
+        <v>196265.9182296589</v>
       </c>
       <c r="D6" t="n">
-        <v>179285.4267829004</v>
+        <v>179283.7696779391</v>
       </c>
       <c r="E6" t="n">
-        <v>-663030.5266856608</v>
+        <v>-663171.8035855948</v>
       </c>
       <c r="F6" t="n">
-        <v>476373.6451065186</v>
+        <v>476232.3682065826</v>
       </c>
       <c r="G6" t="n">
-        <v>476373.6451065184</v>
+        <v>476232.3682065823</v>
       </c>
       <c r="H6" t="n">
-        <v>476373.6451065189</v>
+        <v>476232.3682065829</v>
       </c>
       <c r="I6" t="n">
         <v>440105.2488287645</v>
       </c>
       <c r="J6" t="n">
-        <v>449652.0273472943</v>
+        <v>449641.9555892979</v>
       </c>
       <c r="K6" t="n">
-        <v>488355.9609232746</v>
+        <v>488345.8891652783</v>
       </c>
       <c r="L6" t="n">
-        <v>487026.4819197376</v>
+        <v>487018.9688024034</v>
       </c>
       <c r="M6" t="n">
-        <v>283796.4770467132</v>
+        <v>283796.4770467131</v>
       </c>
       <c r="N6" t="n">
-        <v>488751.5085077875</v>
+        <v>488751.5085077871</v>
       </c>
       <c r="O6" t="n">
         <v>456804.1844640481</v>
       </c>
       <c r="P6" t="n">
-        <v>488751.5085077871</v>
+        <v>488751.508507787</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="F2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="G2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="H2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="I2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="J2" t="n">
+        <v>39.93415505467343</v>
+      </c>
+      <c r="K2" t="n">
+        <v>39.93415505467341</v>
+      </c>
+      <c r="L2" t="n">
+        <v>41.72285388297201</v>
+      </c>
+      <c r="M2" t="n">
+        <v>46.97513661859248</v>
+      </c>
+      <c r="N2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="O2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="P2" t="n">
         <v>46.97513661859252</v>
-      </c>
-      <c r="F2" t="n">
-        <v>46.97513661859251</v>
-      </c>
-      <c r="G2" t="n">
-        <v>46.97513661859251</v>
-      </c>
-      <c r="H2" t="n">
-        <v>46.97513661859251</v>
-      </c>
-      <c r="I2" t="n">
-        <v>46.97513661859251</v>
-      </c>
-      <c r="J2" t="n">
-        <v>39.93415505467339</v>
-      </c>
-      <c r="K2" t="n">
-        <v>39.9341550546734</v>
-      </c>
-      <c r="L2" t="n">
-        <v>41.72285388297215</v>
-      </c>
-      <c r="M2" t="n">
-        <v>46.97513661859249</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.97513661859249</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.97513661859257</v>
-      </c>
-      <c r="P2" t="n">
-        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>24.75837886476568</v>
+        <v>24.75837886476822</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26799,13 +26799,13 @@
         <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
         <v>1014.336461208615</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>39.93415505467338</v>
+        <v>39.93415505467344</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.788698828298756</v>
+        <v>1.7886988282986</v>
       </c>
       <c r="M2" t="n">
-        <v>5.252282735620334</v>
+        <v>5.252282735620469</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>39.93415505467347</v>
+        <v>39.93415505467344</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>24.75837886476568</v>
+        <v>24.75837886476822</v>
       </c>
       <c r="E3" t="n">
-        <v>1065.018321728533</v>
+        <v>1065.01832172853</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>182.9350058063219</v>
       </c>
       <c r="J4" t="n">
-        <v>25.82367465809125</v>
+        <v>25.82367465809102</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>805.5777807442016</v>
+        <v>805.5777807442017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.93415505467338</v>
+        <v>39.93415505467344</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27871,10 +27871,10 @@
         <v>338.4554785075308</v>
       </c>
       <c r="I8" t="n">
-        <v>206.6387140882597</v>
+        <v>206.6387140882593</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>3.501705603160771</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>143.6169430009936</v>
+        <v>143.6169430009929</v>
       </c>
       <c r="S8" t="n">
-        <v>199.8759572781787</v>
+        <v>200.6955819305905</v>
       </c>
       <c r="T8" t="n">
         <v>222.6601518616971</v>
@@ -27910,10 +27910,10 @@
         <v>251.3376904141312</v>
       </c>
       <c r="V8" t="n">
-        <v>325.1975429839971</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>342.3649229757016</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,19 +27929,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>159.6571379081559</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>141.3886444753393</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>150.7690347136895</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>138.1931666516724</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.2902632916902</v>
@@ -27950,7 +27950,7 @@
         <v>111.7211239510227</v>
       </c>
       <c r="I9" t="n">
-        <v>80.68706565603939</v>
+        <v>87.56311139775063</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,22 +27977,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>96.85142272613726</v>
+        <v>90.79500163683748</v>
       </c>
       <c r="S9" t="n">
-        <v>170.6940037973069</v>
+        <v>170.6940037973067</v>
       </c>
       <c r="T9" t="n">
         <v>199.9500782214563</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9378785367958</v>
+        <v>219.0618327950844</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>244.8189374192082</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.9559344402259</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28029,13 +28029,13 @@
         <v>161.8302266954766</v>
       </c>
       <c r="I10" t="n">
-        <v>154.107840217674</v>
+        <v>154.1078402176738</v>
       </c>
       <c r="J10" t="n">
-        <v>90.20268974894682</v>
+        <v>90.20268974894651</v>
       </c>
       <c r="K10" t="n">
-        <v>10.20636277447133</v>
+        <v>17.08240851618223</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.42352804311477</v>
+        <v>75.54748230140295</v>
       </c>
       <c r="R10" t="n">
-        <v>175.2859333138067</v>
+        <v>175.2859333138065</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2385355405172</v>
+        <v>216.3624897988057</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7548281485038</v>
+        <v>221.6984070592044</v>
       </c>
       <c r="U10" t="n">
         <v>286.3165941061108</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>245.2615975821166</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>219.6532342997377</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.7086076103834</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859358</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859266</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859358</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859358</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
       <c r="C26" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
       <c r="D26" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
       <c r="E26" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
       <c r="F26" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
       <c r="G26" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
       <c r="H26" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
       <c r="I26" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
       <c r="T26" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
       <c r="U26" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
       <c r="V26" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
       <c r="W26" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
       <c r="X26" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
       <c r="Y26" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
       <c r="C28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
       <c r="D28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
       <c r="E28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
       <c r="F28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
       <c r="G28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
       <c r="H28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
       <c r="I28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
       <c r="J28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
       <c r="K28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
       <c r="L28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
       <c r="M28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
       <c r="N28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
       <c r="O28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
       <c r="P28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
       <c r="R28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
       <c r="S28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
       <c r="T28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
       <c r="U28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
       <c r="V28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
       <c r="W28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
       <c r="X28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
       <c r="Y28" t="n">
-        <v>39.93415505467339</v>
+        <v>39.93415505467343</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
       <c r="C29" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
       <c r="D29" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
       <c r="E29" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
       <c r="F29" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
       <c r="G29" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
       <c r="H29" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
       <c r="I29" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
       <c r="T29" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
       <c r="U29" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
       <c r="V29" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
       <c r="W29" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
       <c r="X29" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
       <c r="Y29" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
       <c r="C31" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
       <c r="D31" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
       <c r="E31" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
       <c r="F31" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
       <c r="G31" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
       <c r="H31" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
       <c r="I31" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
       <c r="J31" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
       <c r="K31" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
       <c r="L31" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
       <c r="M31" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
       <c r="N31" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
       <c r="O31" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
       <c r="P31" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
       <c r="R31" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
       <c r="S31" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
       <c r="T31" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
       <c r="U31" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
       <c r="V31" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
       <c r="W31" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
       <c r="X31" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
       <c r="Y31" t="n">
-        <v>39.9341550546734</v>
+        <v>39.93415505467341</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
       <c r="C32" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
       <c r="D32" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
       <c r="E32" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
       <c r="F32" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
       <c r="G32" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
       <c r="H32" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
       <c r="T32" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
       <c r="U32" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
       <c r="V32" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
       <c r="W32" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
       <c r="X32" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
       <c r="Y32" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
       <c r="C34" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
       <c r="D34" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
       <c r="E34" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
       <c r="F34" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
       <c r="G34" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
       <c r="H34" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
       <c r="I34" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
       <c r="J34" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
       <c r="K34" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
       <c r="L34" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
       <c r="M34" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
       <c r="N34" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
       <c r="O34" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
       <c r="P34" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
       <c r="Q34" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
       <c r="R34" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
       <c r="S34" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
       <c r="T34" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
       <c r="U34" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
       <c r="V34" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
       <c r="W34" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
       <c r="X34" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
       <c r="Y34" t="n">
-        <v>41.72285388297215</v>
+        <v>41.72285388297201</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859248</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859358</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859392</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859248</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859248</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859358</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859252</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09953117131564086</v>
+        <v>0.09953117131565106</v>
       </c>
       <c r="H8" t="n">
-        <v>1.019323608236307</v>
+        <v>1.019323608236412</v>
       </c>
       <c r="I8" t="n">
-        <v>3.837175482146248</v>
+        <v>3.837175482146642</v>
       </c>
       <c r="J8" t="n">
-        <v>8.44758375145088</v>
+        <v>8.447583751451747</v>
       </c>
       <c r="K8" t="n">
-        <v>12.66073823324196</v>
+        <v>12.66073823324326</v>
       </c>
       <c r="L8" t="n">
-        <v>15.70676531739301</v>
+        <v>15.70676531739462</v>
       </c>
       <c r="M8" t="n">
-        <v>17.47680278527753</v>
+        <v>17.47680278527933</v>
       </c>
       <c r="N8" t="n">
-        <v>17.7595957257781</v>
+        <v>17.75959572577992</v>
       </c>
       <c r="O8" t="n">
-        <v>16.76988264100819</v>
+        <v>16.76988264100992</v>
       </c>
       <c r="P8" t="n">
-        <v>14.31270684915331</v>
+        <v>14.31270684915478</v>
       </c>
       <c r="Q8" t="n">
-        <v>10.74824677641192</v>
+        <v>10.74824677641302</v>
       </c>
       <c r="R8" t="n">
-        <v>6.252174940156131</v>
+        <v>6.252174940156772</v>
       </c>
       <c r="S8" t="n">
-        <v>2.268066566355168</v>
+        <v>2.268066566355401</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4356977024342181</v>
+        <v>0.4356977024342628</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007962493705251266</v>
+        <v>0.007962493705252083</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05325387152043939</v>
+        <v>0.05325387152044486</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5143202854737173</v>
+        <v>0.5143202854737702</v>
       </c>
       <c r="I9" t="n">
-        <v>1.833521453664251</v>
+        <v>1.833521453664439</v>
       </c>
       <c r="J9" t="n">
-        <v>5.031323010621865</v>
+        <v>5.031323010622381</v>
       </c>
       <c r="K9" t="n">
-        <v>8.599332402491303</v>
+        <v>8.599332402492186</v>
       </c>
       <c r="L9" t="n">
-        <v>11.56286363868137</v>
+        <v>11.56286363868256</v>
       </c>
       <c r="M9" t="n">
-        <v>13.4933164812973</v>
+        <v>13.49331648129868</v>
       </c>
       <c r="N9" t="n">
-        <v>13.85044441794095</v>
+        <v>13.85044441794237</v>
       </c>
       <c r="O9" t="n">
-        <v>12.67045073846174</v>
+        <v>12.67045073846304</v>
       </c>
       <c r="P9" t="n">
-        <v>10.16915376428461</v>
+        <v>10.16915376428565</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.797809985661702</v>
+        <v>6.797809985662401</v>
       </c>
       <c r="R9" t="n">
-        <v>3.306411426505879</v>
+        <v>3.306411426506218</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9891673065309678</v>
+        <v>0.9891673065310693</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2146504733652798</v>
+        <v>0.2146504733653018</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003503544178976277</v>
+        <v>0.003503544178976637</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04464625696924959</v>
+        <v>0.04464625696925417</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3969458119629648</v>
+        <v>0.3969458119630055</v>
       </c>
       <c r="I10" t="n">
-        <v>1.342634709584343</v>
+        <v>1.34263470958448</v>
       </c>
       <c r="J10" t="n">
-        <v>3.156490367725945</v>
+        <v>3.156490367726269</v>
       </c>
       <c r="K10" t="n">
-        <v>5.187083309700087</v>
+        <v>5.187083309700619</v>
       </c>
       <c r="L10" t="n">
-        <v>6.637680786137344</v>
+        <v>6.637680786138025</v>
       </c>
       <c r="M10" t="n">
-        <v>6.99850371746155</v>
+        <v>6.998503717462268</v>
       </c>
       <c r="N10" t="n">
-        <v>6.832094941485262</v>
+        <v>6.832094941485963</v>
       </c>
       <c r="O10" t="n">
-        <v>6.310545485071753</v>
+        <v>6.3105454850724</v>
       </c>
       <c r="P10" t="n">
-        <v>5.399761842899057</v>
+        <v>5.39976184289961</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.738515208579618</v>
+        <v>3.738515208580001</v>
       </c>
       <c r="R10" t="n">
-        <v>2.007458063362804</v>
+        <v>2.00745806336301</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7780624964550129</v>
+        <v>0.7780624964550927</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1907612797777027</v>
+        <v>0.1907612797777223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002435250380140889</v>
+        <v>0.002435250380141139</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31856,7 +31856,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
@@ -32312,10 +32312,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138796</v>
@@ -32552,7 +32552,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33503,7 +33503,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33743,7 +33743,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34454,7 +34454,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837925</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35173,16 +35173,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>6.876045741711437</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.284731684364008</v>
+        <v>4.284731684364524</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N9" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>2.313494027378773</v>
       </c>
       <c r="P9" t="n">
-        <v>2.313494027379289</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,10 +35334,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M10" t="n">
-        <v>6.876045741711437</v>
+        <v>3.919904603950195</v>
       </c>
       <c r="N10" t="n">
         <v>6.876045741711437</v>
@@ -35346,7 +35346,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.678321107793098</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
@@ -35577,13 +35577,13 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3693751564862</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597691</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
@@ -35811,16 +35811,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -35896,7 +35896,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340054</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K19" t="n">
         <v>253.0227961629121</v>
@@ -36048,16 +36048,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M19" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N19" t="n">
-        <v>391.8320827861336</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O19" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P19" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3693751564862</v>
@@ -36124,7 +36124,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
@@ -36142,7 +36142,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222434</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165888</v>
       </c>
       <c r="K22" t="n">
-        <v>253.0227961629132</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L22" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M22" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N22" t="n">
         <v>391.8320827861326</v>
@@ -36294,7 +36294,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P22" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3693751564862</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>210.1901169941785</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>461.709877710406</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
@@ -36370,16 +36370,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359772</v>
+        <v>94.62350453597722</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K25" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7325087887917</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M25" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N25" t="n">
         <v>391.8320827861326</v>
@@ -36531,7 +36531,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P25" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3693751564862</v>
@@ -36601,10 +36601,10 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>928.1742191157176</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>929.3883296175524</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597715</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>85.51257166773962</v>
+        <v>85.51257166773965</v>
       </c>
       <c r="K28" t="n">
         <v>245.981814598993</v>
@@ -36759,7 +36759,7 @@
         <v>359.6915272248715</v>
       </c>
       <c r="M28" t="n">
-        <v>387.5675344481572</v>
+        <v>387.5675344481573</v>
       </c>
       <c r="N28" t="n">
         <v>384.7911012222135</v>
@@ -36768,10 +36768,10 @@
         <v>342.2872852773132</v>
       </c>
       <c r="P28" t="n">
-        <v>274.8912261997838</v>
+        <v>274.8912261997839</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.328393592567</v>
+        <v>118.3283935925671</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>947.8599289772508</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
@@ -36847,10 +36847,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>688.9016106857769</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>85.51257166773962</v>
+        <v>85.51257166773964</v>
       </c>
       <c r="K31" t="n">
         <v>245.981814598993</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>367.6382174395538</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
@@ -37087,10 +37087,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>87.67462163850631</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.30127049603837</v>
+        <v>87.30127049603823</v>
       </c>
       <c r="K34" t="n">
-        <v>247.7705134272917</v>
+        <v>247.7705134272916</v>
       </c>
       <c r="L34" t="n">
-        <v>361.4802260531703</v>
+        <v>361.4802260531701</v>
       </c>
       <c r="M34" t="n">
-        <v>389.356233276456</v>
+        <v>389.3562332764558</v>
       </c>
       <c r="N34" t="n">
-        <v>386.5798000505122</v>
+        <v>386.5798000505121</v>
       </c>
       <c r="O34" t="n">
-        <v>344.075984105612</v>
+        <v>344.0759841056118</v>
       </c>
       <c r="P34" t="n">
-        <v>276.6799250280826</v>
+        <v>276.6799250280824</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.1170924208658</v>
+        <v>120.1170924208657</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,13 +37312,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>729.1561268582154</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>632.5715920432249</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37327,7 +37327,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165871</v>
+        <v>92.5535532316587</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887917</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M37" t="n">
         <v>394.6085160120763</v>
@@ -37476,10 +37476,10 @@
         <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P37" t="n">
-        <v>281.9322077637029</v>
+        <v>281.9322077637044</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564861</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>614.4119707098149</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37558,13 +37558,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>705.4494815282975</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165871</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887917</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
         <v>391.8320827861326</v>
@@ -37716,10 +37716,10 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -37789,19 +37789,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>952.505132701123</v>
       </c>
       <c r="O41" t="n">
-        <v>675.7899675310556</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.6235045359772</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38029,16 +38029,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>814.7404961971447</v>
       </c>
       <c r="P44" t="n">
-        <v>675.9826703737858</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004592</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38181,16 +38181,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
